--- a/data/trans_orig/P21B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0306889-91F5-47A8-B6E9-1599FA5B7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E9A847-0567-43ED-90A2-2AB55F02C952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D286D02F-15FF-453F-BEFB-480D265C0457}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBB6B274-3A02-45A1-8246-9A19462F0F4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="571">
   <si>
     <t>Población según tipo de servicio de urgencias utilizado en 2007 (Tasa respuesta: 20,73%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>3,67%</t>
+    <t>3,69%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -89,1663 +89,1669 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,38%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>Un sanatorio, hospital o clínica privada</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>Un servicio privado urgencia</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>Un sanatorio, hospital o clínica privada</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2015 (Tasa respuesta: 18,48%)</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>Un servicio privado urgencia</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2015 (Tasa respuesta: 18,48%)</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE6B544-5553-4AED-B501-7E1FDABD8384}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D4E7C-CDC2-402A-9C8C-178B7ABFBE75}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2386,10 +2392,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2398,13 +2404,13 @@
         <v>2730</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -2416,16 +2422,16 @@
         <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>50</v>
@@ -2434,13 +2440,13 @@
         <v>48752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -2449,13 +2455,13 @@
         <v>92161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>140</v>
@@ -2464,19 +2470,19 @@
         <v>140913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>142</v>
@@ -2485,13 +2491,13 @@
         <v>138801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>236</v>
@@ -2500,13 +2506,13 @@
         <v>240351</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -2515,13 +2521,13 @@
         <v>379152</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2542,13 @@
         <v>197785</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>335</v>
@@ -2551,13 +2557,13 @@
         <v>341468</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>537</v>
@@ -2566,18 +2572,18 @@
         <v>539253</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2592,10 +2598,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2610,7 +2616,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2619,13 +2625,13 @@
         <v>740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,10 +2679,10 @@
         <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,10 +2715,10 @@
         <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2721,19 +2727,19 @@
         <v>8534</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>64</v>
@@ -2742,13 +2748,13 @@
         <v>66973</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -2757,13 +2763,13 @@
         <v>115138</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -2772,19 +2778,19 @@
         <v>182111</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>201</v>
@@ -2793,13 +2799,13 @@
         <v>206832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>242</v>
@@ -2808,13 +2814,13 @@
         <v>250034</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -2823,13 +2829,13 @@
         <v>456866</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2850,13 @@
         <v>281052</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>367</v>
@@ -2859,13 +2865,13 @@
         <v>376447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>639</v>
@@ -2874,18 +2880,18 @@
         <v>657499</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2900,10 +2906,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2915,10 +2921,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2930,10 +2936,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2954,13 @@
         <v>3634</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2963,10 +2969,10 @@
         <v>2983</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>108</v>
@@ -3041,7 +3047,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>21</v>
@@ -3092,7 +3098,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>45</v>
@@ -3137,7 +3143,7 @@
         <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3158,13 @@
         <v>79608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -3167,13 +3173,13 @@
         <v>106094</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -3182,13 +3188,13 @@
         <v>185703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3211,13 @@
         <v>2686</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3220,13 +3226,13 @@
         <v>2889</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3235,13 +3241,13 @@
         <v>5575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3262,13 @@
         <v>10192</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3271,13 +3277,13 @@
         <v>13633</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -3286,13 +3292,13 @@
         <v>23825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3313,13 @@
         <v>12590</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3322,13 +3328,13 @@
         <v>10196</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -3337,19 +3343,19 @@
         <v>22786</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>135</v>
@@ -3358,13 +3364,13 @@
         <v>137445</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -3373,13 +3379,13 @@
         <v>229958</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>361</v>
@@ -3388,19 +3394,19 @@
         <v>367403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>388</v>
@@ -3409,13 +3415,13 @@
         <v>395532</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>551</v>
@@ -3424,13 +3430,13 @@
         <v>567334</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>939</v>
@@ -3439,13 +3445,13 @@
         <v>962865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3466,13 @@
         <v>558446</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>803</v>
@@ -3475,13 +3481,13 @@
         <v>824009</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1350</v>
@@ -3490,18 +3496,18 @@
         <v>1382454</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4191F0-663F-4278-B45B-B022F002B07C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C1C6DE-4BF6-4B9E-90D8-A26CAD0BE127}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3537,7 +3543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3644,13 +3650,13 @@
         <v>1086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3662,10 +3668,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3674,13 +3680,13 @@
         <v>1086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3701,13 @@
         <v>2935</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3710,13 +3716,13 @@
         <v>2064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3725,13 +3731,13 @@
         <v>4998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3752,13 @@
         <v>1261</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3761,13 +3767,13 @@
         <v>2772</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3776,19 +3782,19 @@
         <v>4033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>77</v>
@@ -3797,13 +3803,13 @@
         <v>84363</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -3812,13 +3818,13 @@
         <v>125577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>193</v>
@@ -3827,19 +3833,19 @@
         <v>209940</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>148</v>
@@ -3848,13 +3854,13 @@
         <v>160255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>264</v>
@@ -3863,13 +3869,13 @@
         <v>279395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
@@ -3878,13 +3884,13 @@
         <v>439649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3905,13 @@
         <v>249900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>384</v>
@@ -3914,13 +3920,13 @@
         <v>409807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>614</v>
@@ -3929,18 +3935,18 @@
         <v>659706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3952,13 +3958,13 @@
         <v>916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3970,10 +3976,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3982,13 +3988,13 @@
         <v>916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,10 +4012,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4018,13 +4024,13 @@
         <v>6767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4033,13 +4039,13 @@
         <v>6767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4060,13 @@
         <v>7964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4069,13 +4075,13 @@
         <v>5756</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -4084,19 +4090,19 @@
         <v>13720</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>120</v>
@@ -4105,13 +4111,13 @@
         <v>128301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -4120,13 +4126,13 @@
         <v>154134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>264</v>
@@ -4135,19 +4141,19 @@
         <v>282435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>235</v>
@@ -4156,13 +4162,13 @@
         <v>246330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -4171,13 +4177,13 @@
         <v>284408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>498</v>
@@ -4186,13 +4192,13 @@
         <v>530737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4213,13 @@
         <v>383511</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>419</v>
@@ -4222,13 +4228,13 @@
         <v>451065</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>782</v>
@@ -4237,18 +4243,18 @@
         <v>834576</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4263,10 +4269,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4278,10 +4284,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4293,10 +4299,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4317,13 @@
         <v>897</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4326,13 +4332,13 @@
         <v>6937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -4341,13 +4347,13 @@
         <v>7834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4368,13 @@
         <v>3074</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4377,13 +4383,13 @@
         <v>6310</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4392,19 +4398,19 @@
         <v>9384</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>31</v>
@@ -4413,13 +4419,13 @@
         <v>33881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4428,13 +4434,13 @@
         <v>24243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -4443,19 +4449,19 @@
         <v>58124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>31</v>
@@ -4464,13 +4470,13 @@
         <v>31611</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4479,13 +4485,13 @@
         <v>76818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -4494,13 +4500,13 @@
         <v>108429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4521,13 @@
         <v>69464</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -4530,13 +4536,13 @@
         <v>114308</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -4545,13 +4551,13 @@
         <v>183772</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4574,13 @@
         <v>2002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4586,10 +4592,10 @@
         <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -4598,13 +4604,13 @@
         <v>2002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4625,13 @@
         <v>3832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4634,13 +4640,13 @@
         <v>15768</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -4649,13 +4655,13 @@
         <v>19599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,10 +4679,10 @@
         <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -4685,13 +4691,13 @@
         <v>14838</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -4700,19 +4706,19 @@
         <v>27137</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>228</v>
@@ -4721,13 +4727,13 @@
         <v>246546</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -4736,34 +4742,34 @@
         <v>303953</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
       </c>
       <c r="N25" s="7">
-        <v>550499</v>
+        <v>550500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>414</v>
@@ -4772,13 +4778,13 @@
         <v>438196</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>593</v>
@@ -4787,28 +4793,28 @@
         <v>640620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1007</v>
       </c>
       <c r="N26" s="7">
-        <v>1078816</v>
+        <v>1078817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4829,13 @@
         <v>702875</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>904</v>
@@ -4838,33 +4844,33 @@
         <v>975179</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1563</v>
       </c>
       <c r="N27" s="7">
-        <v>1678054</v>
+        <v>1678055</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4883,7 +4889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DDFEB9-09D4-42BF-95EA-2A1463DAF356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7227FDEB-FB92-47C6-A777-77A31BD90721}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4900,7 +4906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5007,13 +5013,13 @@
         <v>1717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5022,13 +5028,13 @@
         <v>1285</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5037,13 +5043,13 @@
         <v>3003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5067,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>11</v>
@@ -5073,13 +5079,13 @@
         <v>2262</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5094,7 +5100,7 @@
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5115,13 @@
         <v>1020</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5127,10 +5133,10 @@
         <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5139,19 +5145,19 @@
         <v>1020</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>37</v>
@@ -5160,13 +5166,13 @@
         <v>36664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -5175,13 +5181,13 @@
         <v>54983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -5190,19 +5196,19 @@
         <v>91647</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>100</v>
@@ -5211,13 +5217,13 @@
         <v>97803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -5226,13 +5232,13 @@
         <v>164613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
@@ -5241,13 +5247,13 @@
         <v>262416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5268,13 @@
         <v>137205</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>194</v>
@@ -5277,13 +5283,13 @@
         <v>223144</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>334</v>
@@ -5292,18 +5298,18 @@
         <v>360349</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5315,13 +5321,13 @@
         <v>1904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5333,10 +5339,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5345,13 +5351,13 @@
         <v>1904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5372,13 @@
         <v>7275</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5381,10 +5387,10 @@
         <v>10554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>341</v>
@@ -5396,13 +5402,13 @@
         <v>17829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>27</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5423,13 @@
         <v>16494</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>344</v>
+        <v>149</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5432,13 +5438,13 @@
         <v>12024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5447,10 +5453,10 @@
         <v>28518</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>351</v>
@@ -5459,7 +5465,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>81</v>
@@ -5483,13 +5489,13 @@
         <v>121694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -5498,19 +5504,19 @@
         <v>210846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>204</v>
@@ -5519,13 +5525,13 @@
         <v>221778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -5534,13 +5540,13 @@
         <v>243296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -5549,13 +5555,13 @@
         <v>465074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5576,13 @@
         <v>336602</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>371</v>
@@ -5585,13 +5591,13 @@
         <v>387569</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>679</v>
@@ -5600,18 +5606,18 @@
         <v>724171</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5626,10 +5632,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5638,13 +5644,13 @@
         <v>946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5653,13 +5659,13 @@
         <v>946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5680,13 @@
         <v>1878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5689,13 +5695,13 @@
         <v>15974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5704,13 +5710,13 @@
         <v>17852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5731,13 @@
         <v>8769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5740,13 +5746,13 @@
         <v>12176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5755,19 +5761,19 @@
         <v>20945</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>12</v>
@@ -5776,13 +5782,13 @@
         <v>13228</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5791,13 +5797,13 @@
         <v>26974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -5806,19 +5812,19 @@
         <v>40202</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>43</v>
@@ -5827,13 +5833,13 @@
         <v>50017</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -5842,13 +5848,13 @@
         <v>78159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -5857,7 +5863,7 @@
         <v>128176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>404</v>
@@ -5878,13 +5884,13 @@
         <v>73892</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>128</v>
@@ -5893,13 +5899,13 @@
         <v>134229</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -5908,13 +5914,13 @@
         <v>208121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,10 +5940,10 @@
         <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>185</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5946,7 +5952,7 @@
         <v>2232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
@@ -5961,13 +5967,13 @@
         <v>5852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5988,13 @@
         <v>9153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>191</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5997,13 +6003,13 @@
         <v>28791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>290</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -6012,13 +6018,13 @@
         <v>37943</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>316</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6039,13 @@
         <v>26283</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -6048,13 +6054,13 @@
         <v>24200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>222</v>
+        <v>421</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -6063,19 +6069,19 @@
         <v>50483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>130</v>
@@ -6084,13 +6090,13 @@
         <v>139044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -6099,13 +6105,13 @@
         <v>203652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -6114,19 +6120,19 @@
         <v>342696</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>347</v>
@@ -6135,13 +6141,13 @@
         <v>369598</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>448</v>
@@ -6150,13 +6156,13 @@
         <v>486068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>795</v>
@@ -6165,13 +6171,13 @@
         <v>855667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6192,13 @@
         <v>547699</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>693</v>
@@ -6201,13 +6207,13 @@
         <v>744942</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1206</v>
@@ -6216,18 +6222,18 @@
         <v>1292641</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6246,7 +6252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73951C6-4397-4C6E-B2E7-5B10DBF82159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B479DDE-7D7B-418A-B48D-46DE0F66375E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6263,7 +6269,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6370,13 +6376,13 @@
         <v>808</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>444</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6388,10 +6394,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6400,13 +6406,13 @@
         <v>808</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>442</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6427,13 @@
         <v>798</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6436,13 +6442,13 @@
         <v>3455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>448</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>446</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6451,13 +6457,13 @@
         <v>4253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>447</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,10 +6481,10 @@
         <v>119</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6487,13 +6493,13 @@
         <v>1889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>449</v>
+        <v>107</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6502,19 +6508,19 @@
         <v>4337</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>29</v>
@@ -6523,13 +6529,13 @@
         <v>26533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -6538,13 +6544,13 @@
         <v>41810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -6553,19 +6559,19 @@
         <v>68343</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>136</v>
@@ -6574,13 +6580,13 @@
         <v>104790</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>335</v>
@@ -6589,13 +6595,13 @@
         <v>193156</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>471</v>
@@ -6604,13 +6610,13 @@
         <v>297946</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6631,13 @@
         <v>135377</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>412</v>
@@ -6640,13 +6646,13 @@
         <v>240310</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>582</v>
@@ -6655,18 +6661,18 @@
         <v>375687</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6678,13 +6684,13 @@
         <v>4398</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -6693,13 +6699,13 @@
         <v>4276</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>472</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>471</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -6708,13 +6714,13 @@
         <v>8674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6735,13 @@
         <v>7284</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>449</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>475</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6744,13 +6750,13 @@
         <v>12047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>473</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -6759,13 +6765,13 @@
         <v>19331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6786,13 @@
         <v>16013</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>477</v>
+        <v>313</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -6795,13 +6801,13 @@
         <v>27634</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>480</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>479</v>
+        <v>285</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -6810,19 +6816,19 @@
         <v>43647</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>75</v>
@@ -6831,13 +6837,13 @@
         <v>80203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -6846,13 +6852,13 @@
         <v>92978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>489</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -6861,19 +6867,19 @@
         <v>173180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>282</v>
@@ -6882,13 +6888,13 @@
         <v>298665</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
@@ -6897,13 +6903,13 @@
         <v>460450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
@@ -6912,13 +6918,13 @@
         <v>759115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6939,13 @@
         <v>406563</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>660</v>
@@ -6948,13 +6954,13 @@
         <v>597385</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1043</v>
@@ -6963,18 +6969,18 @@
         <v>1003948</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6989,7 +6995,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -7004,10 +7010,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7019,10 +7025,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>22</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,13 +7043,13 @@
         <v>11716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7052,13 +7058,13 @@
         <v>16043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -7067,13 +7073,13 @@
         <v>27759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7094,13 @@
         <v>17041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -7103,13 +7109,13 @@
         <v>12435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -7118,19 +7124,19 @@
         <v>29476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -7139,13 +7145,13 @@
         <v>22065</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -7154,13 +7160,13 @@
         <v>44260</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -7169,19 +7175,19 @@
         <v>66325</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>93</v>
@@ -7190,13 +7196,13 @@
         <v>91732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7205,13 +7211,13 @@
         <v>109764</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -7220,13 +7226,13 @@
         <v>201497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7247,13 @@
         <v>142554</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>238</v>
@@ -7256,13 +7262,13 @@
         <v>182502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>378</v>
@@ -7271,13 +7277,13 @@
         <v>325057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7300,13 @@
         <v>5206</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>339</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7312,10 +7318,10 @@
         <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>536</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7324,13 +7330,13 @@
         <v>9483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7351,13 @@
         <v>19798</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>537</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -7360,13 +7366,13 @@
         <v>31545</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>541</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -7375,13 +7381,13 @@
         <v>51343</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>410</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7402,13 @@
         <v>35502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -7411,13 +7417,13 @@
         <v>41958</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -7426,19 +7432,19 @@
         <v>77460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>548</v>
+        <v>385</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>122</v>
@@ -7447,13 +7453,13 @@
         <v>128800</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -7462,13 +7468,13 @@
         <v>179048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>376</v>
@@ -7477,19 +7483,19 @@
         <v>307848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>511</v>
@@ -7498,13 +7504,13 @@
         <v>495188</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
         <v>957</v>
@@ -7513,13 +7519,13 @@
         <v>763370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
         <v>1468</v>
@@ -7528,13 +7534,13 @@
         <v>1258558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,13 +7555,13 @@
         <v>684495</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1310</v>
@@ -7564,13 +7570,13 @@
         <v>1020197</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2003</v>
@@ -7579,18 +7585,18 @@
         <v>1704692</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E9A847-0567-43ED-90A2-2AB55F02C952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E6C6BB-48D5-4B33-AB79-5B42B23AB49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBB6B274-3A02-45A1-8246-9A19462F0F4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17A7E3BD-D6A7-4058-BDE6-B4534E7480FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="577">
   <si>
     <t>Población según tipo de servicio de urgencias utilizado en 2007 (Tasa respuesta: 20,73%)</t>
   </si>
@@ -80,1620 +80,1641 @@
     <t>0,42%</t>
   </si>
   <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>Un sanatorio, hospital o clínica privada</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>Un servicio privado urgencia</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2016 (Tasa respuesta: 18,48%)</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>Un sanatorio, hospital o clínica privada</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>Un servicio privado urgencia</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2015 (Tasa respuesta: 18,48%)</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
     <t>3,42%</t>
   </si>
   <si>
@@ -1722,9 +1743,6 @@
   </si>
   <si>
     <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
   </si>
   <si>
     <t>72,34%</t>
@@ -2163,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D4E7C-CDC2-402A-9C8C-178B7ABFBE75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF4BA54-F664-4144-B484-38282E402665}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2338,13 +2356,13 @@
         <v>3884</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2353,13 +2371,13 @@
         <v>4077</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2368,19 +2386,19 @@
         <v>7961</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -2389,13 +2407,13 @@
         <v>3662</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2404,13 +2422,13 @@
         <v>2730</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -2419,19 +2437,19 @@
         <v>6392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>50</v>
@@ -2440,13 +2458,13 @@
         <v>48752</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -2455,13 +2473,13 @@
         <v>92161</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>140</v>
@@ -2470,19 +2488,19 @@
         <v>140913</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>142</v>
@@ -2491,13 +2509,13 @@
         <v>138801</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>236</v>
@@ -2506,13 +2524,13 @@
         <v>240351</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -2521,13 +2539,13 @@
         <v>379152</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2560,13 @@
         <v>197785</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>335</v>
@@ -2557,13 +2575,13 @@
         <v>341468</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>537</v>
@@ -2572,18 +2590,18 @@
         <v>539253</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2598,10 +2616,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2616,7 +2634,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2625,13 +2643,13 @@
         <v>740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2664,13 @@
         <v>2674</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2661,13 +2679,13 @@
         <v>6573</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2676,19 +2694,19 @@
         <v>9248</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -2697,13 +2715,13 @@
         <v>4572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2712,13 +2730,13 @@
         <v>3962</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2727,19 +2745,19 @@
         <v>8534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>64</v>
@@ -2748,13 +2766,13 @@
         <v>66973</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -2763,13 +2781,13 @@
         <v>115138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -2778,19 +2796,19 @@
         <v>182111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>201</v>
@@ -2799,13 +2817,13 @@
         <v>206832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>242</v>
@@ -2814,13 +2832,13 @@
         <v>250034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -2829,13 +2847,13 @@
         <v>456866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2868,13 @@
         <v>281052</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>367</v>
@@ -2865,13 +2883,13 @@
         <v>376447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>639</v>
@@ -2880,18 +2898,18 @@
         <v>657499</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2906,10 +2924,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2921,10 +2939,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2936,10 +2954,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2972,13 @@
         <v>3634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2969,10 +2987,10 @@
         <v>2983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>108</v>
@@ -2987,16 +3005,16 @@
         <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>4</v>
@@ -3005,13 +3023,13 @@
         <v>4356</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3020,13 +3038,13 @@
         <v>3504</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -3035,19 +3053,19 @@
         <v>7860</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>21</v>
@@ -3056,13 +3074,13 @@
         <v>21720</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -3071,13 +3089,13 @@
         <v>22659</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3086,19 +3104,19 @@
         <v>44379</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>45</v>
@@ -3107,13 +3125,13 @@
         <v>49899</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -3122,13 +3140,13 @@
         <v>76948</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -3137,13 +3155,13 @@
         <v>126848</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3176,13 @@
         <v>79608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -3173,13 +3191,13 @@
         <v>106094</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -3188,13 +3206,13 @@
         <v>185703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3229,13 @@
         <v>2686</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3226,13 +3244,13 @@
         <v>2889</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3241,13 +3259,13 @@
         <v>5575</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,7 +3280,7 @@
         <v>10192</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>145</v>
@@ -3295,16 +3313,16 @@
         <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -3313,13 +3331,13 @@
         <v>12590</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3328,13 +3346,13 @@
         <v>10196</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -3346,16 +3364,16 @@
         <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>135</v>
@@ -3364,13 +3382,13 @@
         <v>137445</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -3379,13 +3397,13 @@
         <v>229958</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>361</v>
@@ -3394,19 +3412,19 @@
         <v>367403</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>388</v>
@@ -3415,13 +3433,13 @@
         <v>395532</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>551</v>
@@ -3430,13 +3448,13 @@
         <v>567334</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>939</v>
@@ -3445,13 +3463,13 @@
         <v>962865</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3484,13 @@
         <v>558446</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>803</v>
@@ -3481,13 +3499,13 @@
         <v>824009</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1350</v>
@@ -3496,18 +3514,18 @@
         <v>1382454</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +3544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C1C6DE-4BF6-4B9E-90D8-A26CAD0BE127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4903C04-8F89-47C1-A39C-DD544E4CE4A0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,7 +3561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3650,13 +3668,13 @@
         <v>1086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3668,10 +3686,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3680,13 +3698,13 @@
         <v>1086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,10 +3722,10 @@
         <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3716,13 +3734,13 @@
         <v>2064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3731,19 +3749,19 @@
         <v>4998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -3752,13 +3770,13 @@
         <v>1261</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3767,13 +3785,13 @@
         <v>2772</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3782,19 +3800,19 @@
         <v>4033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>77</v>
@@ -3803,13 +3821,13 @@
         <v>84363</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -3818,13 +3836,13 @@
         <v>125577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>193</v>
@@ -3833,19 +3851,19 @@
         <v>209940</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>148</v>
@@ -3854,13 +3872,13 @@
         <v>160255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>264</v>
@@ -3869,13 +3887,13 @@
         <v>279395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
@@ -3884,13 +3902,13 @@
         <v>439649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3923,13 @@
         <v>249900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>384</v>
@@ -3920,13 +3938,13 @@
         <v>409807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>614</v>
@@ -3935,18 +3953,18 @@
         <v>659706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3958,13 +3976,13 @@
         <v>916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3976,10 +3994,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3988,13 +4006,13 @@
         <v>916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,10 +4030,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4024,13 +4042,13 @@
         <v>6767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4039,19 +4057,19 @@
         <v>6767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -4060,13 +4078,13 @@
         <v>7964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4075,13 +4093,13 @@
         <v>5756</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -4090,19 +4108,19 @@
         <v>13720</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>120</v>
@@ -4111,13 +4129,13 @@
         <v>128301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -4126,13 +4144,13 @@
         <v>154134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>264</v>
@@ -4141,19 +4159,19 @@
         <v>282435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>235</v>
@@ -4162,13 +4180,13 @@
         <v>246330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -4177,13 +4195,13 @@
         <v>284408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>498</v>
@@ -4192,13 +4210,13 @@
         <v>530737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4231,13 @@
         <v>383511</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>419</v>
@@ -4228,13 +4246,13 @@
         <v>451065</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>782</v>
@@ -4243,18 +4261,18 @@
         <v>834576</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4269,10 +4287,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4284,10 +4302,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4299,10 +4317,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4335,13 @@
         <v>897</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4332,13 +4350,13 @@
         <v>6937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -4347,19 +4365,19 @@
         <v>7834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -4368,13 +4386,13 @@
         <v>3074</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4383,13 +4401,13 @@
         <v>6310</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4398,19 +4416,19 @@
         <v>9384</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>31</v>
@@ -4419,13 +4437,13 @@
         <v>33881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4434,13 +4452,13 @@
         <v>24243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -4449,19 +4467,19 @@
         <v>58124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>31</v>
@@ -4470,13 +4488,13 @@
         <v>31611</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4485,13 +4503,13 @@
         <v>76818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -4500,13 +4518,13 @@
         <v>108429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4539,13 @@
         <v>69464</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -4536,13 +4554,13 @@
         <v>114308</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -4551,13 +4569,13 @@
         <v>183772</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4592,13 @@
         <v>2002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4592,10 +4610,10 @@
         <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -4604,13 +4622,13 @@
         <v>2002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,10 +4643,10 @@
         <v>3832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>11</v>
@@ -4640,13 +4658,13 @@
         <v>15768</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -4658,16 +4676,16 @@
         <v>180</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -4676,13 +4694,13 @@
         <v>12299</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -4691,13 +4709,13 @@
         <v>14838</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -4706,19 +4724,19 @@
         <v>27137</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>228</v>
@@ -4727,13 +4745,13 @@
         <v>246546</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -4742,13 +4760,13 @@
         <v>303953</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
@@ -4757,19 +4775,19 @@
         <v>550500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>414</v>
@@ -4778,13 +4796,13 @@
         <v>438196</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>593</v>
@@ -4793,13 +4811,13 @@
         <v>640620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>1007</v>
@@ -4808,13 +4826,13 @@
         <v>1078817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4847,13 @@
         <v>702875</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>904</v>
@@ -4844,13 +4862,13 @@
         <v>975179</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1563</v>
@@ -4859,18 +4877,18 @@
         <v>1678055</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4889,7 +4907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7227FDEB-FB92-47C6-A777-77A31BD90721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E0CEE7-26A3-44EC-B781-E3F6FA37F61E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4906,7 +4924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5013,13 +5031,13 @@
         <v>1717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5028,13 +5046,13 @@
         <v>1285</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5043,7 +5061,7 @@
         <v>3003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>310</v>
@@ -5067,7 +5085,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>11</v>
@@ -5079,13 +5097,13 @@
         <v>2262</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5100,13 +5118,13 @@
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -5115,13 +5133,13 @@
         <v>1020</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5133,10 +5151,10 @@
         <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>316</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5145,19 +5163,19 @@
         <v>1020</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>113</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>37</v>
@@ -5166,13 +5184,13 @@
         <v>36664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -5181,13 +5199,13 @@
         <v>54983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -5196,19 +5214,19 @@
         <v>91647</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>100</v>
@@ -5217,13 +5235,13 @@
         <v>97803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -5232,13 +5250,13 @@
         <v>164613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
@@ -5247,13 +5265,13 @@
         <v>262416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5286,13 @@
         <v>137205</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>194</v>
@@ -5283,13 +5301,13 @@
         <v>223144</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>334</v>
@@ -5298,18 +5316,18 @@
         <v>360349</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5321,13 +5339,13 @@
         <v>1904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5339,10 +5357,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5357,7 +5375,7 @@
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5390,13 @@
         <v>7275</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5387,13 +5405,13 @@
         <v>10554</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -5402,19 +5420,19 @@
         <v>17829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>14</v>
@@ -5423,13 +5441,13 @@
         <v>16494</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5438,13 +5456,13 @@
         <v>12024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5453,19 +5471,19 @@
         <v>28518</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>100</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>81</v>
@@ -5474,13 +5492,13 @@
         <v>89152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>118</v>
@@ -5489,13 +5507,13 @@
         <v>121694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -5504,19 +5522,19 @@
         <v>210846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>204</v>
@@ -5525,13 +5543,13 @@
         <v>221778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -5540,13 +5558,13 @@
         <v>243296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -5555,13 +5573,13 @@
         <v>465074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5594,13 @@
         <v>336602</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>371</v>
@@ -5591,13 +5609,13 @@
         <v>387569</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>679</v>
@@ -5606,18 +5624,18 @@
         <v>724171</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5632,10 +5650,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5644,13 +5662,13 @@
         <v>946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5659,13 +5677,13 @@
         <v>946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5698,13 @@
         <v>1878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5695,13 +5713,13 @@
         <v>15974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5710,19 +5728,19 @@
         <v>17852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -5731,13 +5749,13 @@
         <v>8769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5746,13 +5764,13 @@
         <v>12176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5761,10 +5779,10 @@
         <v>20945</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>386</v>
@@ -5773,7 +5791,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>12</v>
@@ -5782,13 +5800,13 @@
         <v>13228</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5797,13 +5815,13 @@
         <v>26974</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -5812,19 +5830,19 @@
         <v>40202</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>43</v>
@@ -5833,13 +5851,13 @@
         <v>50017</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -5848,13 +5866,13 @@
         <v>78159</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -5863,13 +5881,13 @@
         <v>128176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5902,13 @@
         <v>73892</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>128</v>
@@ -5899,13 +5917,13 @@
         <v>134229</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -5914,13 +5932,13 @@
         <v>208121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5955,13 @@
         <v>3621</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5952,7 +5970,7 @@
         <v>2232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
@@ -5967,10 +5985,10 @@
         <v>5852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>409</v>
@@ -5988,13 +6006,13 @@
         <v>9153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>69</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -6003,13 +6021,13 @@
         <v>28791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -6018,19 +6036,19 @@
         <v>37943</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -6039,13 +6057,13 @@
         <v>26283</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -6075,13 +6093,13 @@
         <v>424</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>425</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>130</v>
@@ -6090,13 +6108,13 @@
         <v>139044</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -6105,13 +6123,13 @@
         <v>203652</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -6126,13 +6144,13 @@
         <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>347</v>
@@ -6141,10 +6159,10 @@
         <v>369598</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>207</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>435</v>
@@ -6192,13 +6210,13 @@
         <v>547699</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>693</v>
@@ -6207,13 +6225,13 @@
         <v>744942</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1206</v>
@@ -6222,18 +6240,18 @@
         <v>1292641</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6252,7 +6270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B479DDE-7D7B-418A-B48D-46DE0F66375E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BBD35F-F9E1-4417-B9DC-E76F82006729}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6394,10 +6412,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6406,13 +6424,13 @@
         <v>808</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +6463,7 @@
         <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>448</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>109</v>
@@ -6457,19 +6475,19 @@
         <v>4253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -6478,13 +6496,13 @@
         <v>2448</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6493,13 +6511,13 @@
         <v>1889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>410</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>451</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6508,19 +6526,19 @@
         <v>4337</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>29</v>
@@ -6529,13 +6547,13 @@
         <v>26533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>454</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -6544,13 +6562,13 @@
         <v>41810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -6559,19 +6577,19 @@
         <v>68343</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>136</v>
@@ -6580,13 +6598,13 @@
         <v>104790</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H8" s="7">
         <v>335</v>
@@ -6595,13 +6613,13 @@
         <v>193156</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M8" s="7">
         <v>471</v>
@@ -6610,13 +6628,13 @@
         <v>297946</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6649,13 @@
         <v>135377</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>412</v>
@@ -6646,13 +6664,13 @@
         <v>240310</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>582</v>
@@ -6661,18 +6679,18 @@
         <v>375687</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6684,13 +6702,13 @@
         <v>4398</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>473</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -6699,13 +6717,13 @@
         <v>4276</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -6714,13 +6732,13 @@
         <v>8674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>476</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6753,13 @@
         <v>7284</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6750,13 +6768,13 @@
         <v>12047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -6765,19 +6783,19 @@
         <v>19331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>12</v>
@@ -6786,13 +6804,13 @@
         <v>16013</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -6801,13 +6819,13 @@
         <v>27634</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -6816,19 +6834,19 @@
         <v>43647</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>75</v>
@@ -6837,13 +6855,13 @@
         <v>80203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -6852,13 +6870,13 @@
         <v>92978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -6867,19 +6885,19 @@
         <v>173180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>282</v>
@@ -6888,13 +6906,13 @@
         <v>298665</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
@@ -6903,13 +6921,13 @@
         <v>460450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
@@ -6918,13 +6936,13 @@
         <v>759115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6957,13 @@
         <v>406563</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>660</v>
@@ -6954,13 +6972,13 @@
         <v>597385</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1043</v>
@@ -6969,18 +6987,18 @@
         <v>1003948</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6995,7 +7013,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -7010,10 +7028,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7025,10 +7043,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7061,13 @@
         <v>11716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7058,13 +7076,13 @@
         <v>16043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -7073,19 +7091,19 @@
         <v>27759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>510</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>18</v>
@@ -7094,13 +7112,13 @@
         <v>17041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -7109,13 +7127,13 @@
         <v>12435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>315</v>
+        <v>520</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -7124,19 +7142,19 @@
         <v>29476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -7145,13 +7163,13 @@
         <v>22065</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -7160,13 +7178,13 @@
         <v>44260</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -7175,19 +7193,19 @@
         <v>66325</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>93</v>
@@ -7196,13 +7214,13 @@
         <v>91732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7211,13 +7229,13 @@
         <v>109764</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -7226,13 +7244,13 @@
         <v>201497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7265,13 @@
         <v>142554</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>238</v>
@@ -7262,13 +7280,13 @@
         <v>182502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>378</v>
@@ -7277,13 +7295,13 @@
         <v>325057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7318,13 @@
         <v>5206</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7318,10 +7336,10 @@
         <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7330,13 +7348,13 @@
         <v>9483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7369,13 @@
         <v>19798</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -7366,13 +7384,13 @@
         <v>31545</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -7381,19 +7399,19 @@
         <v>51343</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>33</v>
@@ -7402,13 +7420,13 @@
         <v>35502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -7417,13 +7435,13 @@
         <v>41958</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -7432,19 +7450,19 @@
         <v>77460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>385</v>
+        <v>557</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>122</v>
@@ -7453,13 +7471,13 @@
         <v>128800</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -7468,13 +7486,13 @@
         <v>179048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="M25" s="7">
         <v>376</v>
@@ -7483,19 +7501,19 @@
         <v>307848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>561</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>511</v>
@@ -7504,13 +7522,13 @@
         <v>495188</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H26" s="7">
         <v>957</v>
@@ -7519,13 +7537,13 @@
         <v>763370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M26" s="7">
         <v>1468</v>
@@ -7534,13 +7552,13 @@
         <v>1258558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7573,13 @@
         <v>684495</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>1310</v>
@@ -7570,13 +7588,13 @@
         <v>1020197</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>2003</v>
@@ -7585,18 +7603,18 @@
         <v>1704692</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E6C6BB-48D5-4B33-AB79-5B42B23AB49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{125F4534-D73B-4B62-8035-A17567B21667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17A7E3BD-D6A7-4058-BDE6-B4534E7480FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5667644-FCC5-4F22-AD1F-F02462C99478}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="569">
   <si>
     <t>Población según tipo de servicio de urgencias utilizado en 2007 (Tasa respuesta: 20,73%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -89,1687 +89,1663 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Un sanatorio, hospital o clínica privada</t>
+  </si>
+  <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>Un servicio privado urgencia</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Un sanatorio, hospital o clínica privada</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2016 (Tasa respuesta: 18,48%)</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>Un servicio privado urgencia</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2016 (Tasa respuesta: 18,48%)</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>5,79%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>14,48%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF4BA54-F664-4144-B484-38282E402665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C672B1-510F-4C46-A18A-01357DE46B3D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2356,13 +2332,13 @@
         <v>3884</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2371,13 +2347,13 @@
         <v>4077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2386,19 +2362,19 @@
         <v>7961</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -2407,10 +2383,10 @@
         <v>3662</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
@@ -2437,7 +2413,7 @@
         <v>6392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>36</v>
@@ -2649,7 +2625,7 @@
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2640,13 @@
         <v>2674</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2679,13 +2655,13 @@
         <v>6573</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2694,19 +2670,19 @@
         <v>9248</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -2715,13 +2691,13 @@
         <v>4572</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2730,13 +2706,13 @@
         <v>3962</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -3005,16 +2981,16 @@
         <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>4</v>
@@ -3023,13 +2999,13 @@
         <v>4356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3038,13 +3014,13 @@
         <v>3504</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -3053,13 +3029,13 @@
         <v>7860</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3050,13 @@
         <v>21720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -3089,13 +3065,13 @@
         <v>22659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3104,13 +3080,13 @@
         <v>44379</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3101,13 @@
         <v>49899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -3140,13 +3116,13 @@
         <v>76948</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -3155,13 +3131,13 @@
         <v>126848</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3205,13 @@
         <v>2686</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3244,13 +3220,13 @@
         <v>2889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3259,13 +3235,13 @@
         <v>5575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3256,13 @@
         <v>10192</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3295,13 +3271,13 @@
         <v>13633</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -3310,19 +3286,19 @@
         <v>23825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -3331,13 +3307,13 @@
         <v>12590</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3346,13 +3322,13 @@
         <v>10196</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -3361,13 +3337,13 @@
         <v>22786</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3358,13 @@
         <v>137445</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -3397,13 +3373,13 @@
         <v>229958</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>361</v>
@@ -3412,13 +3388,13 @@
         <v>367403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3409,13 @@
         <v>395532</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>551</v>
@@ -3448,13 +3424,13 @@
         <v>567334</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>939</v>
@@ -3463,13 +3439,13 @@
         <v>962865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3501,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4903C04-8F89-47C1-A39C-DD544E4CE4A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B36CE9-A9C4-4F10-A1B1-4F04D1150D96}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3561,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3668,13 +3644,13 @@
         <v>1086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3689,7 +3665,7 @@
         <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3698,13 +3674,13 @@
         <v>1086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3695,13 @@
         <v>2935</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3734,13 +3710,13 @@
         <v>2064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3749,19 +3725,19 @@
         <v>4998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -3770,13 +3746,13 @@
         <v>1261</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3785,13 +3761,13 @@
         <v>2772</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3800,13 +3776,13 @@
         <v>4033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3797,13 @@
         <v>84363</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -3836,13 +3812,13 @@
         <v>125577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>193</v>
@@ -3851,13 +3827,13 @@
         <v>209940</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3848,13 @@
         <v>160255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>264</v>
@@ -3887,13 +3863,13 @@
         <v>279395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
@@ -3902,13 +3878,13 @@
         <v>439649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3952,13 @@
         <v>916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3997,7 +3973,7 @@
         <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4012,7 +3988,7 @@
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,7 +4009,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4042,13 +4018,13 @@
         <v>6767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4057,19 +4033,19 @@
         <v>6767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -4078,13 +4054,13 @@
         <v>7964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4093,13 +4069,13 @@
         <v>5756</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -4108,13 +4084,13 @@
         <v>13720</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4105,13 @@
         <v>128301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -4144,13 +4120,13 @@
         <v>154134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>264</v>
@@ -4159,13 +4135,13 @@
         <v>282435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4156,13 @@
         <v>246330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -4195,13 +4171,13 @@
         <v>284408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>498</v>
@@ -4210,13 +4186,13 @@
         <v>530737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4266,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4320,7 +4296,7 @@
         <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4311,13 @@
         <v>897</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4350,13 +4326,13 @@
         <v>6937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -4365,19 +4341,19 @@
         <v>7834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -4386,13 +4362,13 @@
         <v>3074</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4401,13 +4377,13 @@
         <v>6310</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4416,13 +4392,13 @@
         <v>9384</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4413,13 @@
         <v>33881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4452,13 +4428,13 @@
         <v>24243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -4467,13 +4443,13 @@
         <v>58124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4464,13 @@
         <v>31611</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4503,13 +4479,13 @@
         <v>76818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -4518,13 +4494,13 @@
         <v>108429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4568,13 @@
         <v>2002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4613,7 +4589,7 @@
         <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -4622,13 +4598,13 @@
         <v>2002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4619,13 @@
         <v>3832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4658,13 +4634,13 @@
         <v>15768</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -4673,19 +4649,19 @@
         <v>19599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -4694,13 +4670,13 @@
         <v>12299</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -4709,13 +4685,13 @@
         <v>14838</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -4724,13 +4700,13 @@
         <v>27137</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4721,13 @@
         <v>246546</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -4760,28 +4736,28 @@
         <v>303953</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
       </c>
       <c r="N25" s="7">
-        <v>550500</v>
+        <v>550499</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4772,13 @@
         <v>438196</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>593</v>
@@ -4811,28 +4787,28 @@
         <v>640620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>1007</v>
       </c>
       <c r="N26" s="7">
-        <v>1078817</v>
+        <v>1078816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4850,7 @@
         <v>1563</v>
       </c>
       <c r="N27" s="7">
-        <v>1678055</v>
+        <v>1678054</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -4888,7 +4864,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4907,7 +4883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E0CEE7-26A3-44EC-B781-E3F6FA37F61E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446A17F5-496D-40C4-BCB5-FA065AF92009}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4924,7 +4900,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5031,13 +5007,13 @@
         <v>1717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5052,7 +5028,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5061,13 +5037,13 @@
         <v>3003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5073,13 @@
         <v>2262</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5118,13 +5094,13 @@
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -5133,13 +5109,13 @@
         <v>1020</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5154,7 +5130,7 @@
         <v>60</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5163,13 +5139,13 @@
         <v>1020</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5160,13 @@
         <v>36664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -5199,13 +5175,13 @@
         <v>54983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -5214,13 +5190,13 @@
         <v>91647</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5211,13 @@
         <v>97803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -5250,13 +5226,13 @@
         <v>164613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
@@ -5265,13 +5241,13 @@
         <v>262416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5315,13 @@
         <v>1904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5360,7 +5336,7 @@
         <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5369,13 +5345,13 @@
         <v>1904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5366,13 @@
         <v>7275</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5405,13 +5381,13 @@
         <v>10554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -5420,19 +5396,19 @@
         <v>17829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>14</v>
@@ -5441,13 +5417,13 @@
         <v>16494</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5456,13 +5432,13 @@
         <v>12024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5471,13 +5447,13 @@
         <v>28518</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5468,13 @@
         <v>89152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>118</v>
@@ -5507,13 +5483,13 @@
         <v>121694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -5522,13 +5498,13 @@
         <v>210846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5519,13 @@
         <v>221778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -5558,13 +5534,13 @@
         <v>243296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -5573,13 +5549,13 @@
         <v>465074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,7 +5629,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5668,7 +5644,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5677,13 +5653,13 @@
         <v>946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5674,13 @@
         <v>1878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5713,13 +5689,13 @@
         <v>15974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5728,19 +5704,19 @@
         <v>17852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -5749,13 +5725,13 @@
         <v>8769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5764,13 +5740,13 @@
         <v>12176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5779,13 +5755,13 @@
         <v>20945</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5776,13 @@
         <v>13228</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5815,13 +5791,13 @@
         <v>26974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -5830,13 +5806,13 @@
         <v>40202</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5827,13 @@
         <v>50017</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -5866,13 +5842,13 @@
         <v>78159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -5881,13 +5857,13 @@
         <v>128176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,10 +5931,10 @@
         <v>3621</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>185</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>407</v>
@@ -5970,7 +5946,7 @@
         <v>2232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
@@ -5985,13 +5961,13 @@
         <v>5852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +5982,13 @@
         <v>9153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>410</v>
+        <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -6021,13 +5997,13 @@
         <v>28791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>290</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -6036,19 +6012,19 @@
         <v>37943</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -6057,13 +6033,13 @@
         <v>26283</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>245</v>
+        <v>416</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -6072,13 +6048,13 @@
         <v>24200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>421</v>
+        <v>222</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -6087,13 +6063,13 @@
         <v>50483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6084,13 @@
         <v>139044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -6123,13 +6099,13 @@
         <v>203652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -6138,13 +6114,13 @@
         <v>342696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6135,13 @@
         <v>369598</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>207</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>448</v>
@@ -6174,13 +6150,13 @@
         <v>486068</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>795</v>
@@ -6189,13 +6165,13 @@
         <v>855667</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,7 +6227,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6270,7 +6246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BBD35F-F9E1-4417-B9DC-E76F82006729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7219295F-0BED-4FC4-A0DA-25AAC8284829}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6287,7 +6263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6394,13 +6370,13 @@
         <v>808</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6415,7 +6391,7 @@
         <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6430,7 +6406,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6421,13 @@
         <v>798</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6460,13 +6436,13 @@
         <v>3455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>446</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6475,19 +6451,19 @@
         <v>4253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -6496,13 +6472,13 @@
         <v>2448</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>449</v>
+        <v>119</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>450</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6511,13 +6487,13 @@
         <v>1889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6526,13 +6502,13 @@
         <v>4337</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>453</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>454</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6523,13 @@
         <v>26533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>453</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -6562,13 +6538,13 @@
         <v>41810</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -6577,13 +6553,13 @@
         <v>68343</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6574,13 @@
         <v>104790</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H8" s="7">
         <v>335</v>
@@ -6613,13 +6589,13 @@
         <v>193156</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M8" s="7">
         <v>471</v>
@@ -6628,13 +6604,13 @@
         <v>297946</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6678,13 @@
         <v>4398</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -6717,13 +6693,13 @@
         <v>4276</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>474</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -6732,13 +6708,13 @@
         <v>8674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>475</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>476</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6729,13 @@
         <v>7284</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>478</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6768,13 +6744,13 @@
         <v>12047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>480</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -6783,19 +6759,19 @@
         <v>19331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>12</v>
@@ -6804,13 +6780,13 @@
         <v>16013</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -6819,13 +6795,13 @@
         <v>27634</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>486</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>479</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -6834,13 +6810,13 @@
         <v>43647</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6831,13 @@
         <v>80203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -6870,13 +6846,13 @@
         <v>92978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>495</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -6885,13 +6861,13 @@
         <v>173180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6882,13 @@
         <v>298665</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
@@ -6921,13 +6897,13 @@
         <v>460450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>504</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
@@ -6936,13 +6912,13 @@
         <v>759115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,7 +7022,7 @@
         <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7037,13 @@
         <v>11716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7076,13 +7052,13 @@
         <v>16043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -7091,19 +7067,19 @@
         <v>27759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>18</v>
@@ -7112,13 +7088,13 @@
         <v>17041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -7127,13 +7103,13 @@
         <v>12435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -7142,13 +7118,13 @@
         <v>29476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7139,13 @@
         <v>22065</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -7178,13 +7154,13 @@
         <v>44260</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -7193,13 +7169,13 @@
         <v>66325</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7190,13 @@
         <v>91732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7229,13 +7205,13 @@
         <v>109764</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -7244,13 +7220,13 @@
         <v>201497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7294,13 @@
         <v>5206</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7336,10 +7312,10 @@
         <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>542</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7348,13 +7324,13 @@
         <v>9483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,13 +7345,13 @@
         <v>19798</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>449</v>
+        <v>537</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
@@ -7384,13 +7360,13 @@
         <v>31545</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -7399,19 +7375,19 @@
         <v>51343</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>550</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>33</v>
@@ -7420,13 +7396,13 @@
         <v>35502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -7435,13 +7411,13 @@
         <v>41958</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -7450,13 +7426,13 @@
         <v>77460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7447,13 @@
         <v>128800</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -7486,13 +7462,13 @@
         <v>179048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="M25" s="7">
         <v>376</v>
@@ -7501,13 +7477,13 @@
         <v>307848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7498,13 @@
         <v>495188</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
         <v>957</v>
@@ -7537,13 +7513,13 @@
         <v>763370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="M26" s="7">
         <v>1468</v>
@@ -7552,13 +7528,13 @@
         <v>1258558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,7 +7590,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{125F4534-D73B-4B62-8035-A17567B21667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F430086-8AA3-4407-BBBB-5FB26E55A406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5667644-FCC5-4F22-AD1F-F02462C99478}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B5B409D1-A076-4E26-943D-11AE9864BB01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="571">
   <si>
     <t>Población según tipo de servicio de urgencias utilizado en 2007 (Tasa respuesta: 20,73%)</t>
   </si>
@@ -1364,388 +1364,394 @@
     <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C672B1-510F-4C46-A18A-01357DE46B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCB7EB4-C608-4854-A409-9676B8273B5F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3520,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B36CE9-A9C4-4F10-A1B1-4F04D1150D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E18E82-137A-41DF-A850-C7E598097472}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4748,7 +4754,7 @@
         <v>511</v>
       </c>
       <c r="N25" s="7">
-        <v>550499</v>
+        <v>550500</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>298</v>
@@ -4799,7 +4805,7 @@
         <v>1007</v>
       </c>
       <c r="N26" s="7">
-        <v>1078816</v>
+        <v>1078817</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>307</v>
@@ -4850,7 +4856,7 @@
         <v>1563</v>
       </c>
       <c r="N27" s="7">
-        <v>1678054</v>
+        <v>1678055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -4883,7 +4889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446A17F5-496D-40C4-BCB5-FA065AF92009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C56AB6-35AE-480E-AE1F-B748AFDB7310}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6246,7 +6252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7219295F-0BED-4FC4-A0DA-25AAC8284829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA699BE-6874-4CEB-96A2-7B1232AF3B5E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6367,16 +6373,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>808</v>
+        <v>759</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6397,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>808</v>
+        <v>759</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>34</v>
@@ -6418,46 +6424,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>798</v>
+        <v>760</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>3455</v>
+        <v>2955</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>4253</v>
+        <v>3715</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,46 +6475,46 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>2448</v>
+        <v>2253</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1889</v>
+        <v>1728</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>4337</v>
+        <v>3981</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>449</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,46 +6526,46 @@
         <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>26533</v>
+        <v>27959</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>41810</v>
+        <v>38871</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
       </c>
       <c r="N7" s="7">
-        <v>68343</v>
+        <v>66830</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,46 +6577,46 @@
         <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>104790</v>
+        <v>100506</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>335</v>
       </c>
       <c r="I8" s="7">
-        <v>193156</v>
+        <v>175414</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>471</v>
       </c>
       <c r="N8" s="7">
-        <v>297946</v>
+        <v>275920</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,7 +6628,7 @@
         <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>135377</v>
+        <v>132237</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -6637,7 +6643,7 @@
         <v>412</v>
       </c>
       <c r="I9" s="7">
-        <v>240310</v>
+        <v>218968</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -6652,7 +6658,7 @@
         <v>582</v>
       </c>
       <c r="N9" s="7">
-        <v>375687</v>
+        <v>351205</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -6675,46 +6681,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>4398</v>
+        <v>3879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4276</v>
+        <v>3733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>471</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>8674</v>
+        <v>7612</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,46 +6732,46 @@
         <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>7284</v>
+        <v>7006</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>12047</v>
+        <v>11170</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>19331</v>
+        <v>18177</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,10 +6783,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>16013</v>
+        <v>15469</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>349</v>
+        <v>476</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>477</v>
@@ -6792,13 +6798,13 @@
         <v>32</v>
       </c>
       <c r="I12" s="7">
-        <v>27634</v>
+        <v>24665</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>479</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>480</v>
@@ -6807,7 +6813,7 @@
         <v>44</v>
       </c>
       <c r="N12" s="7">
-        <v>43647</v>
+        <v>40134</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>481</v>
@@ -6828,7 +6834,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>80203</v>
+        <v>79924</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>484</v>
@@ -6843,31 +6849,31 @@
         <v>130</v>
       </c>
       <c r="I13" s="7">
-        <v>92978</v>
+        <v>86546</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>488</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
       </c>
       <c r="N13" s="7">
-        <v>173180</v>
+        <v>166470</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,46 +6885,46 @@
         <v>282</v>
       </c>
       <c r="D14" s="7">
-        <v>298665</v>
+        <v>297579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
       </c>
       <c r="I14" s="7">
-        <v>460450</v>
+        <v>528835</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
       </c>
       <c r="N14" s="7">
-        <v>759115</v>
+        <v>826414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,7 +6936,7 @@
         <v>383</v>
       </c>
       <c r="D15" s="7">
-        <v>406563</v>
+        <v>403857</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -6945,7 +6951,7 @@
         <v>660</v>
       </c>
       <c r="I15" s="7">
-        <v>597385</v>
+        <v>654950</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -6960,7 +6966,7 @@
         <v>1043</v>
       </c>
       <c r="N15" s="7">
-        <v>1003948</v>
+        <v>1058807</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -7034,46 +7040,46 @@
         <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>11716</v>
+        <v>11943</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>16043</v>
+        <v>14899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>27759</v>
+        <v>26842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,28 +7091,28 @@
         <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>17041</v>
+        <v>16234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>12435</v>
+        <v>11209</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>514</v>
@@ -7115,16 +7121,16 @@
         <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>29476</v>
+        <v>27443</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>515</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,46 +7142,46 @@
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>22065</v>
+        <v>22012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>44260</v>
+        <v>43510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
       </c>
       <c r="N19" s="7">
-        <v>66325</v>
+        <v>65522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,37 +7193,37 @@
         <v>93</v>
       </c>
       <c r="D20" s="7">
-        <v>91732</v>
+        <v>89231</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>109764</v>
+        <v>101557</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>461</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
       </c>
       <c r="N20" s="7">
-        <v>201497</v>
+        <v>190788</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>532</v>
@@ -7238,7 +7244,7 @@
         <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>142554</v>
+        <v>139420</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -7253,7 +7259,7 @@
         <v>238</v>
       </c>
       <c r="I21" s="7">
-        <v>182502</v>
+        <v>171176</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -7268,7 +7274,7 @@
         <v>378</v>
       </c>
       <c r="N21" s="7">
-        <v>325057</v>
+        <v>310596</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -7291,46 +7297,46 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>5206</v>
+        <v>4638</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>4276</v>
+        <v>3733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>536</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>9483</v>
+        <v>8371</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,46 +7348,46 @@
         <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>19798</v>
+        <v>19709</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>538</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>44</v>
       </c>
       <c r="I23" s="7">
-        <v>31545</v>
+        <v>29024</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>539</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>542</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
       </c>
       <c r="N23" s="7">
-        <v>51343</v>
+        <v>48734</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>541</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>410</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,46 +7399,46 @@
         <v>33</v>
       </c>
       <c r="D24" s="7">
-        <v>35502</v>
+        <v>33956</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
       </c>
       <c r="I24" s="7">
-        <v>41958</v>
+        <v>37602</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
       </c>
       <c r="N24" s="7">
-        <v>77460</v>
+        <v>71558</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>549</v>
+        <v>260</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,46 +7450,46 @@
         <v>122</v>
       </c>
       <c r="D25" s="7">
-        <v>128800</v>
+        <v>129895</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
       </c>
       <c r="I25" s="7">
-        <v>179048</v>
+        <v>168928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>376</v>
       </c>
       <c r="N25" s="7">
-        <v>307848</v>
+        <v>298822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,46 +7501,46 @@
         <v>511</v>
       </c>
       <c r="D26" s="7">
-        <v>495188</v>
+        <v>487316</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
         <v>957</v>
       </c>
       <c r="I26" s="7">
-        <v>763370</v>
+        <v>805806</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
         <v>1468</v>
       </c>
       <c r="N26" s="7">
-        <v>1258558</v>
+        <v>1293122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,7 +7552,7 @@
         <v>693</v>
       </c>
       <c r="D27" s="7">
-        <v>684495</v>
+        <v>675514</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -7561,7 +7567,7 @@
         <v>1310</v>
       </c>
       <c r="I27" s="7">
-        <v>1020197</v>
+        <v>1045094</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -7576,7 +7582,7 @@
         <v>2003</v>
       </c>
       <c r="N27" s="7">
-        <v>1704692</v>
+        <v>1720608</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
